--- a/Test Excel (1).xlsx
+++ b/Test Excel (1).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDE44C6-0135-4A1A-AECB-A3E81BAF0DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarton\Documents\GitHub\project2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3073F-E6DE-41BC-B545-EA433910FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32940" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1390">
   <si>
     <t>ID</t>
   </si>
@@ -4224,13 +4229,25 @@
   </si>
   <si>
     <t>ZW</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>medic</t>
+  </si>
+  <si>
+    <t>med inc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4284,7 +4301,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4300,9 +4317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4340,7 +4357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4446,7 +4463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4588,7 +4605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4596,14 +4613,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -4627,7 +4644,7 @@
     <col min="20" max="20" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4603</v>
       </c>
@@ -4748,7 +4765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4604</v>
       </c>
@@ -4807,7 +4824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4605</v>
       </c>
@@ -4866,7 +4883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4606</v>
       </c>
@@ -4925,7 +4942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4607</v>
       </c>
@@ -4984,7 +5001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4608</v>
       </c>
@@ -5043,7 +5060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4609</v>
       </c>
@@ -5102,7 +5119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4610</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4611</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4612</v>
       </c>
@@ -5279,7 +5296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4613</v>
       </c>
@@ -5338,7 +5355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4614</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4615</v>
       </c>
@@ -5456,7 +5473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4616</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4617</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4618</v>
       </c>
@@ -5633,7 +5650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4619</v>
       </c>
@@ -5692,7 +5709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4620</v>
       </c>
@@ -5751,7 +5768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4621</v>
       </c>
@@ -5810,7 +5827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4622</v>
       </c>
@@ -5869,7 +5886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4623</v>
       </c>
@@ -5928,7 +5945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4624</v>
       </c>
@@ -5987,7 +6004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4625</v>
       </c>
@@ -6046,7 +6063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4626</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4627</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4628</v>
       </c>
@@ -6223,7 +6240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4629</v>
       </c>
@@ -6282,7 +6299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4630</v>
       </c>
@@ -6341,7 +6358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4631</v>
       </c>
@@ -6400,7 +6417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4632</v>
       </c>
@@ -6459,7 +6476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4633</v>
       </c>
@@ -6518,7 +6535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4634</v>
       </c>
@@ -6577,7 +6594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4635</v>
       </c>
@@ -6636,7 +6653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4636</v>
       </c>
@@ -6695,7 +6712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4637</v>
       </c>
@@ -6754,7 +6771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4638</v>
       </c>
@@ -6813,7 +6830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4639</v>
       </c>
@@ -6872,7 +6889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4640</v>
       </c>
@@ -6931,7 +6948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4641</v>
       </c>
@@ -6990,7 +7007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4642</v>
       </c>
@@ -7049,7 +7066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4643</v>
       </c>
@@ -7108,7 +7125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>4644</v>
       </c>
@@ -7167,7 +7184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4645</v>
       </c>
@@ -7226,7 +7243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>4646</v>
       </c>
@@ -7285,7 +7302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4647</v>
       </c>
@@ -7344,7 +7361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4648</v>
       </c>
@@ -7403,7 +7420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4649</v>
       </c>
@@ -7462,7 +7479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4650</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4651</v>
       </c>
@@ -7580,7 +7597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4652</v>
       </c>
@@ -7639,7 +7656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4653</v>
       </c>
@@ -7698,7 +7715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4654</v>
       </c>
@@ -7757,7 +7774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4655</v>
       </c>
@@ -7816,7 +7833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4656</v>
       </c>
@@ -7875,7 +7892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4657</v>
       </c>
@@ -7934,7 +7951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4658</v>
       </c>
@@ -7993,7 +8010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4659</v>
       </c>
@@ -8052,7 +8069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4660</v>
       </c>
@@ -8111,7 +8128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4661</v>
       </c>
@@ -8170,7 +8187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4662</v>
       </c>
@@ -8229,7 +8246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4663</v>
       </c>
@@ -8288,7 +8305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>4664</v>
       </c>
@@ -8347,7 +8364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>4665</v>
       </c>
@@ -8406,7 +8423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>4666</v>
       </c>
@@ -8465,7 +8482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>4667</v>
       </c>
@@ -8524,7 +8541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>4668</v>
       </c>
@@ -8583,7 +8600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>4669</v>
       </c>
@@ -8642,7 +8659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>4670</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>4671</v>
       </c>
@@ -8760,7 +8777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>4672</v>
       </c>
@@ -8819,7 +8836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>4673</v>
       </c>
@@ -8878,7 +8895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>4674</v>
       </c>
@@ -8937,7 +8954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>4675</v>
       </c>
@@ -8996,7 +9013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>4676</v>
       </c>
@@ -9055,7 +9072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>4677</v>
       </c>
@@ -9114,7 +9131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>4678</v>
       </c>
@@ -9173,7 +9190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>4679</v>
       </c>
@@ -9232,7 +9249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>4680</v>
       </c>
@@ -9291,7 +9308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>4681</v>
       </c>
@@ -9350,7 +9367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>4682</v>
       </c>
@@ -9409,7 +9426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>4683</v>
       </c>
@@ -9468,7 +9485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>4684</v>
       </c>
@@ -9527,7 +9544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>4685</v>
       </c>
@@ -9586,7 +9603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>4686</v>
       </c>
@@ -9645,7 +9662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>4687</v>
       </c>
@@ -9704,7 +9721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>4688</v>
       </c>
@@ -9763,7 +9780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>4689</v>
       </c>
@@ -9822,7 +9839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>4690</v>
       </c>
@@ -9881,7 +9898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>4691</v>
       </c>
@@ -9940,7 +9957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>4692</v>
       </c>
@@ -9999,7 +10016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>4693</v>
       </c>
@@ -10058,7 +10075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>4694</v>
       </c>
@@ -10117,7 +10134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>4695</v>
       </c>
@@ -10176,7 +10193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>4696</v>
       </c>
@@ -10235,7 +10252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>4697</v>
       </c>
@@ -10294,7 +10311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>4698</v>
       </c>
@@ -10353,7 +10370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>4699</v>
       </c>
@@ -10412,7 +10429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>4700</v>
       </c>
@@ -10471,7 +10488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>4701</v>
       </c>
@@ -10530,7 +10547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>4702</v>
       </c>
@@ -10587,6 +10604,29 @@
       </c>
       <c r="T101" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4703</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G102" t="s">
+        <v>369</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -10606,106 +10646,106 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A2" r:id="rId1" location="/issue/4603" display="http://00b79c61386c:8080/retina/ - /issue/4603" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" location="/issue/4604" display="http://00b79c61386c:8080/retina/ - /issue/4604" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" location="/issue/4605" display="http://00b79c61386c:8080/retina/ - /issue/4605" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" location="/issue/4606" display="http://00b79c61386c:8080/retina/ - /issue/4606" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" location="/issue/4607" display="http://00b79c61386c:8080/retina/ - /issue/4607" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" location="/issue/4608" display="http://00b79c61386c:8080/retina/ - /issue/4608" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" location="/issue/4609" display="http://00b79c61386c:8080/retina/ - /issue/4609" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" location="/issue/4610" display="http://00b79c61386c:8080/retina/ - /issue/4610" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" location="/issue/4611" display="http://00b79c61386c:8080/retina/ - /issue/4611" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" location="/issue/4612" display="http://00b79c61386c:8080/retina/ - /issue/4612" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" location="/issue/4613" display="http://00b79c61386c:8080/retina/ - /issue/4613" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" location="/issue/4614" display="http://00b79c61386c:8080/retina/ - /issue/4614" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" location="/issue/4615" display="http://00b79c61386c:8080/retina/ - /issue/4615" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" location="/issue/4616" display="http://00b79c61386c:8080/retina/ - /issue/4616" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" location="/issue/4617" display="http://00b79c61386c:8080/retina/ - /issue/4617" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" location="/issue/4618" display="http://00b79c61386c:8080/retina/ - /issue/4618" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" location="/issue/4619" display="http://00b79c61386c:8080/retina/ - /issue/4619" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" location="/issue/4620" display="http://00b79c61386c:8080/retina/ - /issue/4620" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" location="/issue/4621" display="http://00b79c61386c:8080/retina/ - /issue/4621" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" location="/issue/4622" display="http://00b79c61386c:8080/retina/ - /issue/4622" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" location="/issue/4623" display="http://00b79c61386c:8080/retina/ - /issue/4623" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" location="/issue/4624" display="http://00b79c61386c:8080/retina/ - /issue/4624" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" location="/issue/4625" display="http://00b79c61386c:8080/retina/ - /issue/4625" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" location="/issue/4626" display="http://00b79c61386c:8080/retina/ - /issue/4626" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" location="/issue/4627" display="http://00b79c61386c:8080/retina/ - /issue/4627" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" location="/issue/4628" display="http://00b79c61386c:8080/retina/ - /issue/4628" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" location="/issue/4629" display="http://00b79c61386c:8080/retina/ - /issue/4629" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" location="/issue/4630" display="http://00b79c61386c:8080/retina/ - /issue/4630" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" location="/issue/4631" display="http://00b79c61386c:8080/retina/ - /issue/4631" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" location="/issue/4632" display="http://00b79c61386c:8080/retina/ - /issue/4632" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" location="/issue/4633" display="http://00b79c61386c:8080/retina/ - /issue/4633" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" location="/issue/4634" display="http://00b79c61386c:8080/retina/ - /issue/4634" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" location="/issue/4635" display="http://00b79c61386c:8080/retina/ - /issue/4635" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" location="/issue/4636" display="http://00b79c61386c:8080/retina/ - /issue/4636" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" location="/issue/4637" display="http://00b79c61386c:8080/retina/ - /issue/4637" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" location="/issue/4638" display="http://00b79c61386c:8080/retina/ - /issue/4638" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" location="/issue/4639" display="http://00b79c61386c:8080/retina/ - /issue/4639" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" location="/issue/4640" display="http://00b79c61386c:8080/retina/ - /issue/4640" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" location="/issue/4641" display="http://00b79c61386c:8080/retina/ - /issue/4641" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" location="/issue/4642" display="http://00b79c61386c:8080/retina/ - /issue/4642" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" location="/issue/4643" display="http://00b79c61386c:8080/retina/ - /issue/4643" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" location="/issue/4644" display="http://00b79c61386c:8080/retina/ - /issue/4644" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" location="/issue/4645" display="http://00b79c61386c:8080/retina/ - /issue/4645" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" location="/issue/4646" display="http://00b79c61386c:8080/retina/ - /issue/4646" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" location="/issue/4647" display="http://00b79c61386c:8080/retina/ - /issue/4647" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" location="/issue/4648" display="http://00b79c61386c:8080/retina/ - /issue/4648" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" location="/issue/4649" display="http://00b79c61386c:8080/retina/ - /issue/4649" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" location="/issue/4650" display="http://00b79c61386c:8080/retina/ - /issue/4650" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" location="/issue/4651" display="http://00b79c61386c:8080/retina/ - /issue/4651" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" location="/issue/4652" display="http://00b79c61386c:8080/retina/ - /issue/4652" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" location="/issue/4653" display="http://00b79c61386c:8080/retina/ - /issue/4653" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" location="/issue/4654" display="http://00b79c61386c:8080/retina/ - /issue/4654" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" location="/issue/4655" display="http://00b79c61386c:8080/retina/ - /issue/4655" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" location="/issue/4656" display="http://00b79c61386c:8080/retina/ - /issue/4656" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" location="/issue/4657" display="http://00b79c61386c:8080/retina/ - /issue/4657" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" location="/issue/4658" display="http://00b79c61386c:8080/retina/ - /issue/4658" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" location="/issue/4659" display="http://00b79c61386c:8080/retina/ - /issue/4659" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" location="/issue/4660" display="http://00b79c61386c:8080/retina/ - /issue/4660" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" location="/issue/4661" display="http://00b79c61386c:8080/retina/ - /issue/4661" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" location="/issue/4662" display="http://00b79c61386c:8080/retina/ - /issue/4662" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" location="/issue/4663" display="http://00b79c61386c:8080/retina/ - /issue/4663" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" location="/issue/4664" display="http://00b79c61386c:8080/retina/ - /issue/4664" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" location="/issue/4665" display="http://00b79c61386c:8080/retina/ - /issue/4665" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" location="/issue/4666" display="http://00b79c61386c:8080/retina/ - /issue/4666" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" location="/issue/4667" display="http://00b79c61386c:8080/retina/ - /issue/4667" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" location="/issue/4668" display="http://00b79c61386c:8080/retina/ - /issue/4668" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" location="/issue/4669" display="http://00b79c61386c:8080/retina/ - /issue/4669" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" location="/issue/4670" display="http://00b79c61386c:8080/retina/ - /issue/4670" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" location="/issue/4671" display="http://00b79c61386c:8080/retina/ - /issue/4671" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" location="/issue/4672" display="http://00b79c61386c:8080/retina/ - /issue/4672" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" location="/issue/4673" display="http://00b79c61386c:8080/retina/ - /issue/4673" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" location="/issue/4674" display="http://00b79c61386c:8080/retina/ - /issue/4674" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" location="/issue/4675" display="http://00b79c61386c:8080/retina/ - /issue/4675" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" location="/issue/4676" display="http://00b79c61386c:8080/retina/ - /issue/4676" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" location="/issue/4677" display="http://00b79c61386c:8080/retina/ - /issue/4677" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" location="/issue/4678" display="http://00b79c61386c:8080/retina/ - /issue/4678" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" location="/issue/4679" display="http://00b79c61386c:8080/retina/ - /issue/4679" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" location="/issue/4680" display="http://00b79c61386c:8080/retina/ - /issue/4680" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" location="/issue/4681" display="http://00b79c61386c:8080/retina/ - /issue/4681" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" location="/issue/4682" display="http://00b79c61386c:8080/retina/ - /issue/4682" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" location="/issue/4683" display="http://00b79c61386c:8080/retina/ - /issue/4683" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" location="/issue/4684" display="http://00b79c61386c:8080/retina/ - /issue/4684" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" location="/issue/4685" display="http://00b79c61386c:8080/retina/ - /issue/4685" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" location="/issue/4686" display="http://00b79c61386c:8080/retina/ - /issue/4686" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" location="/issue/4687" display="http://00b79c61386c:8080/retina/ - /issue/4687" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" location="/issue/4688" display="http://00b79c61386c:8080/retina/ - /issue/4688" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" location="/issue/4689" display="http://00b79c61386c:8080/retina/ - /issue/4689" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" location="/issue/4690" display="http://00b79c61386c:8080/retina/ - /issue/4690" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" location="/issue/4691" display="http://00b79c61386c:8080/retina/ - /issue/4691" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" location="/issue/4692" display="http://00b79c61386c:8080/retina/ - /issue/4692" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" location="/issue/4693" display="http://00b79c61386c:8080/retina/ - /issue/4693" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" location="/issue/4694" display="http://00b79c61386c:8080/retina/ - /issue/4694" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" location="/issue/4695" display="http://00b79c61386c:8080/retina/ - /issue/4695" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" location="/issue/4696" display="http://00b79c61386c:8080/retina/ - /issue/4696" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" location="/issue/4697" display="http://00b79c61386c:8080/retina/ - /issue/4697" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" location="/issue/4698" display="http://00b79c61386c:8080/retina/ - /issue/4698" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" location="/issue/4699" display="http://00b79c61386c:8080/retina/ - /issue/4699" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" location="/issue/4700" display="http://00b79c61386c:8080/retina/ - /issue/4700" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" location="/issue/4701" display="http://00b79c61386c:8080/retina/ - /issue/4701" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" location="/issue/4702" display="http://00b79c61386c:8080/retina/ - /issue/4702" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10747,9 +10787,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>739</v>
       </c>
@@ -10763,7 +10803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -10777,7 +10817,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -10791,7 +10831,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -10805,7 +10845,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -10819,7 +10859,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -10833,7 +10873,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -10847,7 +10887,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -10861,7 +10901,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -10875,7 +10915,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>553</v>
       </c>
@@ -10889,7 +10929,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -10903,7 +10943,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -10917,7 +10957,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -10931,7 +10971,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -10939,7 +10979,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>278</v>
       </c>
@@ -10947,7 +10987,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -10955,7 +10995,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -10963,7 +11003,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -10971,7 +11011,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -10979,7 +11019,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -10987,7 +11027,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -10995,7 +11035,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -11003,2392 +11043,2392 @@
         <v>911</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
         <v>1385</v>
       </c>
